--- a/Exos/01-mcd/00-tp-biblio.xlsx
+++ b/Exos/01-mcd/00-tp-biblio.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPO-GITHUB\CDA-07-DB\Exos\01-mcd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyweez/Documents/REPO-GIT/CDA-07-DB/Exos/01-mcd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266F9BE-5A7F-407F-B429-E792E64ECBFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB8FE16-62ED-E540-A952-E63E1AF6E11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
+    <workbookView xWindow="-34480" yWindow="460" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dictionnaire de donnees" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
+    <sheet name="Matrice vanilla" sheetId="2" r:id="rId2"/>
+    <sheet name="Dépendances fonctionnelles simp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
-  <si>
-    <t>Entite</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>Mnemonique</t>
   </si>
@@ -53,9 +52,6 @@
     <t>Contraintes</t>
   </si>
   <si>
-    <t>clients</t>
-  </si>
-  <si>
     <t>client_id</t>
   </si>
   <si>
@@ -65,12 +61,6 @@
     <t>client_deposit</t>
   </si>
   <si>
-    <t>client_max_borrows</t>
-  </si>
-  <si>
-    <t>books</t>
-  </si>
-  <si>
     <t>book_id</t>
   </si>
   <si>
@@ -83,15 +73,9 @@
     <t>client_address</t>
   </si>
   <si>
-    <t>book_borrow_date</t>
-  </si>
-  <si>
     <t>book_purchase_date</t>
   </si>
   <si>
-    <t>book_state</t>
-  </si>
-  <si>
     <t>client_firstname</t>
   </si>
   <si>
@@ -104,9 +88,6 @@
     <t>Montant de la caution</t>
   </si>
   <si>
-    <t>Nombre max d'emprunts</t>
-  </si>
-  <si>
     <t>Adresse du client</t>
   </si>
   <si>
@@ -119,9 +100,6 @@
     <t>Editeur du livre</t>
   </si>
   <si>
-    <t>authors</t>
-  </si>
-  <si>
     <t>auth_id</t>
   </si>
   <si>
@@ -137,9 +115,6 @@
     <t>Date d'achat du livre</t>
   </si>
   <si>
-    <t>Etat du livre</t>
-  </si>
-  <si>
     <t>Date d'emprunt du livre</t>
   </si>
   <si>
@@ -161,9 +136,6 @@
     <t>AN</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Obligatoire</t>
   </si>
   <si>
@@ -176,10 +148,22 @@
     <t>-</t>
   </si>
   <si>
-    <t>Facultatif</t>
-  </si>
-  <si>
-    <t>&gt;= 0 et &lt;= 10</t>
+    <t>borrow_date</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>library_address</t>
+  </si>
+  <si>
+    <t>Adresse du point de retrait</t>
+  </si>
+  <si>
+    <t>➔</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -203,12 +187,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -264,11 +254,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,6 +269,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -596,351 +596,702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF74A7F-FA35-438F-A0F3-6FB00DD605E2}">
-  <dimension ref="C4:I19"/>
+  <dimension ref="C4:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="9">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2">
         <v>50</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3">
-        <v>11</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="3">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
         <v>50</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="2" t="s">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="3">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="3">
-        <v>50</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="3">
-        <v>50</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="2"/>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="H4:I4"/>
+  <mergeCells count="1">
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9473B4C0-DC07-794D-836D-FCE9B2D5E845}">
+  <dimension ref="B5:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="B5:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8D2C94-6DDA-5441-ADE7-C625043D60DD}">
+  <dimension ref="C7:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Exos/01-mcd/00-tp-biblio.xlsx
+++ b/Exos/01-mcd/00-tp-biblio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyweez/Documents/REPO-GIT/CDA-07-DB/Exos/01-mcd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB8FE16-62ED-E540-A952-E63E1AF6E11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A471E5C2-55F6-C345-8790-93831AC6D70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34480" yWindow="460" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>Mnemonique</t>
   </si>
@@ -148,9 +148,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>borrow_date</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -164,6 +161,21 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>Date de retour du livre</t>
+  </si>
+  <si>
+    <t>book_state</t>
+  </si>
+  <si>
+    <t>Etat du livre</t>
+  </si>
+  <si>
+    <t>borrow_start_date</t>
+  </si>
+  <si>
+    <t>borrow_return_date</t>
   </si>
 </sst>
 </file>
@@ -201,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,37 +236,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -263,25 +249,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF74A7F-FA35-438F-A0F3-6FB00DD605E2}">
-  <dimension ref="C4:H18"/>
+  <dimension ref="C4:H20"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C18"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -625,28 +603,28 @@
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>50</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
@@ -798,66 +776,60 @@
     </row>
     <row r="14" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -872,21 +844,51 @@
     </row>
     <row r="18" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="F18" s="2">
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -926,8 +928,8 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>39</v>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -939,7 +941,7 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
@@ -988,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -1029,7 +1031,7 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -1064,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8D2C94-6DDA-5441-ADE7-C625043D60DD}">
   <dimension ref="C7:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1099,8 +1101,8 @@
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
-        <v>39</v>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
@@ -1111,25 +1113,25 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>11</v>
@@ -1150,31 +1152,31 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>21</v>
@@ -1193,13 +1195,13 @@
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>23</v>
@@ -1269,7 +1271,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">

--- a/Exos/01-mcd/00-tp-biblio.xlsx
+++ b/Exos/01-mcd/00-tp-biblio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyweez/Documents/REPO-GIT/CDA-07-DB/Exos/01-mcd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A471E5C2-55F6-C345-8790-93831AC6D70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0335BFC2-3058-2143-9E01-6E15840AF153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="1" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
   <si>
     <t>Mnemonique</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>borrow_return_date</t>
+  </si>
+  <si>
+    <t>library_name</t>
+  </si>
+  <si>
+    <t>Nom du point de retrait</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Unique</t>
   </si>
 </sst>
 </file>
@@ -256,10 +268,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF74A7F-FA35-438F-A0F3-6FB00DD605E2}">
-  <dimension ref="C4:H20"/>
+  <dimension ref="C4:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -603,20 +615,20 @@
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5">
         <v>50</v>
@@ -624,52 +636,56 @@
       <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -684,16 +700,16 @@
     </row>
     <row r="9" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2">
-        <v>5.3</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>33</v>
@@ -702,16 +718,16 @@
     </row>
     <row r="10" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>100</v>
+        <v>5.3</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>33</v>
@@ -720,48 +736,48 @@
     </row>
     <row r="11" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -776,78 +792,82 @@
     </row>
     <row r="14" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -862,16 +882,16 @@
     </row>
     <row r="19" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="F19" s="2">
+        <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>33</v>
@@ -879,16 +899,40 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -901,161 +945,402 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9473B4C0-DC07-794D-836D-FCE9B2D5E845}">
-  <dimension ref="B5:E18"/>
+  <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="B5:E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+    <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Exos/01-mcd/00-tp-biblio.xlsx
+++ b/Exos/01-mcd/00-tp-biblio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyweez/Documents/REPO-GIT/CDA-07-DB/Exos/01-mcd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0335BFC2-3058-2143-9E01-6E15840AF153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E27CD-82E7-1D42-AD54-A967A7C9332C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="1" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="2" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>Mnemonique</t>
   </si>
@@ -945,10 +945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9473B4C0-DC07-794D-836D-FCE9B2D5E845}">
-  <dimension ref="B2:O19"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -958,19 +958,11 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -985,34 +977,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1025,16 +993,8 @@
         <v>1</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1047,36 +1007,22 @@
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1085,18 +1031,10 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1105,18 +1043,10 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1125,56 +1055,34 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1182,19 +1090,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1203,144 +1103,30 @@
         <v>1</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1349,232 +1135,282 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8D2C94-6DDA-5441-ADE7-C625043D60DD}">
-  <dimension ref="C7:S18"/>
+  <dimension ref="B18:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C8" s="4" t="s">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="O21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Exos/01-mcd/00-tp-biblio.xlsx
+++ b/Exos/01-mcd/00-tp-biblio.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyweez/Documents/REPO-GIT/CDA-07-DB/Exos/01-mcd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E27CD-82E7-1D42-AD54-A967A7C9332C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2375F4F-0CB8-8841-BFDC-645AFEFC108E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="2" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{CFFC525C-6FE4-4BAF-972D-B3DFB1CD5250}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
     <sheet name="Matrice vanilla" sheetId="2" r:id="rId2"/>
     <sheet name="Dépendances fonctionnelles simp" sheetId="3" r:id="rId3"/>
+    <sheet name="Dépendances fonctionnelles comp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
   <si>
     <t>Mnemonique</t>
   </si>
@@ -194,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,7 +205,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -225,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -248,30 +256,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,13 +622,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF74A7F-FA35-438F-A0F3-6FB00DD605E2}">
   <dimension ref="C4:H21"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -603,336 +637,336 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>50</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="8">
         <v>100</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="10">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="10">
         <v>50</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="10">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="10">
         <v>5.3</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="10">
         <v>100</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="10">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="10">
         <v>50</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="10">
         <v>50</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="10">
         <v>20</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="10">
         <v>11</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="10">
         <v>50</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="10">
         <v>50</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -948,7 +982,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B2" sqref="B2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -984,7 +1018,7 @@
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -1001,7 +1035,7 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>1</v>
@@ -1135,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8D2C94-6DDA-5441-ADE7-C625043D60DD}">
-  <dimension ref="B18:U30"/>
+  <dimension ref="B17:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView topLeftCell="A6" zoomScale="172" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1149,23 +1183,32 @@
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>47</v>
@@ -1182,98 +1225,99 @@
       <c r="G18" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="K19" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="P19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="R19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="P20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S20" s="1" t="s">
+      <c r="R20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S20" s="12"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1284,29 +1328,29 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1318,7 +1362,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1374,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1386,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1398,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1410,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1422,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1390,7 +1434,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1402,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1417,4 +1461,73 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690487F9-E80E-5847-964B-1530A90056F5}">
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="B2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>